--- a/Modele/1040.xlsx
+++ b/Modele/1040.xlsx
@@ -523,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A12:G51"/>
+  <dimension ref="A12:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,22 +620,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39.9965</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40.99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-0.9935</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
@@ -645,7 +645,7 @@
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>200.0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
@@ -658,7 +658,7 @@
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>360.0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -671,7 +671,7 @@
       <c r="B20" s="4" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-360</t>
+          <t>-360.0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -714,7 +714,7 @@
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -757,7 +757,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -770,7 +770,7 @@
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
@@ -783,7 +783,7 @@
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -796,7 +796,7 @@
       <c r="B29" s="4" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
@@ -813,7 +813,7 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
@@ -826,7 +826,7 @@
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>200.0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -839,7 +839,7 @@
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>360.0</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
@@ -852,7 +852,7 @@
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-360</t>
+          <t>-360.0</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -882,7 +882,7 @@
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>500.0</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
@@ -895,7 +895,7 @@
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>900.0</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -908,7 +908,7 @@
       <c r="B37" s="4" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-900</t>
+          <t>-900.0</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
@@ -916,20 +916,6 @@
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B21:F21"/>
@@ -950,7 +936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A15:G38"/>
+  <dimension ref="B15:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,20 +1099,6 @@
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B16:F16"/>
@@ -1143,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A15:G47"/>
+  <dimension ref="B15:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1422,20 +1394,6 @@
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B29:F29"/>
@@ -1455,7 +1413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A15:G43"/>
+  <dimension ref="B15:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1682,20 +1640,6 @@
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B17:B20"/>
@@ -1714,7 +1658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A15:G30"/>
+  <dimension ref="B15:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/Modele/1040.xlsx
+++ b/Modele/1040.xlsx
@@ -523,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A12:G37"/>
+  <dimension ref="A12:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,27 +615,27 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39.9965</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>40.99</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0.9935</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
@@ -645,12 +645,24 @@
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>200.0</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
@@ -658,7 +670,7 @@
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>360.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -671,7 +683,7 @@
       <c r="B20" s="4" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-360.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -683,25 +695,25 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="6" t="n"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B22" s="3" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>200.0</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -714,7 +726,7 @@
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>360.0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -724,10 +736,10 @@
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
-      <c r="B24" s="3" t="n"/>
+      <c r="B24" s="4" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>-360.0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -737,27 +749,27 @@
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3.6</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="6" t="n"/>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -770,7 +782,7 @@
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
@@ -783,7 +795,7 @@
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -796,7 +808,7 @@
       <c r="B29" s="4" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-36.0</t>
+          <t>-3.6</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
@@ -808,12 +820,12 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
@@ -826,7 +838,7 @@
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>200.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -839,7 +851,7 @@
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>360.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
@@ -852,7 +864,7 @@
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-360.0</t>
+          <t>-36.0</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
@@ -864,12 +876,12 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>400</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -882,7 +894,7 @@
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>500.0</t>
+          <t>200.0</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
@@ -895,7 +907,7 @@
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>900.0</t>
+          <t>360.0</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -908,7 +920,7 @@
       <c r="B37" s="4" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-900.0</t>
+          <t>-360.0</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
@@ -916,15 +928,193 @@
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" s="3" t="n"/>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" s="3" t="n"/>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>900.0</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-900.0</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:B25"/>
+  <mergeCells count="8">
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B38:B41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -936,7 +1126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:G24"/>
+  <dimension ref="A15:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,6 +1174,7 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>V</t>
@@ -996,14 +1187,15 @@
       <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
@@ -1012,10 +1204,11 @@
       <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
@@ -1024,10 +1217,11 @@
       <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -1036,10 +1230,11 @@
       <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-360</t>
+          <t>-3.6</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1048,14 +1243,15 @@
       <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1064,10 +1260,11 @@
       <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr"/>
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1076,10 +1273,11 @@
       <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -1088,10 +1286,11 @@
       <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr"/>
       <c r="B24" s="4" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-675</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -1099,11 +1298,189 @@
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-675</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1115,7 +1492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:G33"/>
+  <dimension ref="A15:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1163,9 +1540,10 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>mA</t>
+          <t>uA</t>
         </is>
       </c>
       <c r="C16" s="5" t="n"/>
@@ -1175,14 +1553,15 @@
       <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>400</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
@@ -1191,10 +1570,11 @@
       <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
@@ -1203,10 +1583,11 @@
       <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -1215,10 +1596,11 @@
       <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3.6</t>
+          <t>-360</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1227,26 +1609,28 @@
       <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="6" t="n"/>
+      <c r="G21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="3" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1255,10 +1639,11 @@
       <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -1267,10 +1652,11 @@
       <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="B24" s="4" t="n"/>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" s="3" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -1279,14 +1665,11 @@
       <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" s="4" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-3.6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
@@ -1295,10 +1678,15 @@
       <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="n"/>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -1307,10 +1695,11 @@
       <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr"/>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
@@ -1319,10 +1708,11 @@
       <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="B28" s="4" t="n"/>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" s="3" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-360</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -1331,26 +1721,28 @@
       <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="n"/>
-      <c r="D29" s="5" t="n"/>
-      <c r="E29" s="5" t="n"/>
-      <c r="F29" s="6" t="n"/>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>400</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
@@ -1359,10 +1751,11 @@
       <c r="G30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr"/>
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -1371,10 +1764,11 @@
       <c r="G31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr"/>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
@@ -1383,10 +1777,11 @@
       <c r="G32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr"/>
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-360</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
@@ -1394,14 +1789,206 @@
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="5" t="n"/>
+      <c r="E34" s="5" t="n"/>
+      <c r="F34" s="6" t="n"/>
+      <c r="G34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" s="3" t="n"/>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" s="3" t="n"/>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" s="4" t="n"/>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B29:F29"/>
+  <mergeCells count="8">
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B35:B38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1413,7 +2000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:G29"/>
+  <dimension ref="A15:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,6 +2048,7 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>mA</t>
@@ -1473,6 +2061,7 @@
       <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
           <t>40</t>
@@ -1489,6 +2078,7 @@
       <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
@@ -1501,6 +2091,7 @@
       <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
@@ -1513,6 +2104,7 @@
       <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
@@ -1525,6 +2117,7 @@
       <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>400</t>
@@ -1541,6 +2134,7 @@
       <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr"/>
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
@@ -1553,6 +2147,7 @@
       <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
@@ -1565,6 +2160,7 @@
       <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr"/>
       <c r="B24" s="4" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
@@ -1577,6 +2173,7 @@
       <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
           <t>A</t>
@@ -1589,6 +2186,7 @@
       <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
           <t>10</t>
@@ -1605,6 +2203,7 @@
       <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr"/>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
@@ -1617,6 +2216,7 @@
       <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr"/>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
@@ -1629,6 +2229,7 @@
       <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr"/>
       <c r="B29" s="4" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
@@ -1639,6 +2240,127 @@
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1658,7 +2380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:G30"/>
+  <dimension ref="A15:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1706,6 +2428,7 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Ω</t>
@@ -1718,6 +2441,7 @@
       <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
           <t>200</t>
@@ -1734,6 +2458,7 @@
       <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="4" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
@@ -1746,6 +2471,7 @@
       <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr">
         <is>
           <t>kΩ</t>
@@ -1758,6 +2484,7 @@
       <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <t>2</t>
@@ -1774,6 +2501,7 @@
       <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr"/>
       <c r="B21" s="4" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
@@ -1786,6 +2514,7 @@
       <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <t>20</t>
@@ -1802,6 +2531,7 @@
       <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" s="4" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
@@ -1814,6 +2544,7 @@
       <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
           <t>200</t>
@@ -1830,6 +2561,7 @@
       <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr"/>
       <c r="B25" s="4" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
@@ -1842,6 +2574,7 @@
       <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
           <t>MΩ</t>
@@ -1854,6 +2587,7 @@
       <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
           <t>20</t>
@@ -1870,6 +2604,7 @@
       <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr"/>
       <c r="B28" s="4" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
@@ -1882,6 +2617,7 @@
       <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr">
         <is>
           <t>200</t>
@@ -1898,6 +2634,7 @@
       <c r="G29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr"/>
       <c r="B30" s="4" t="n"/>
       <c r="C30" s="2" t="inlineStr">
         <is>
